--- a/Capstone 1/club_values.xlsx
+++ b/Capstone 1/club_values.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="426" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="436" sheetId="1" r:id="rId4"/>
     <sheet name="438" sheetId="5" r:id="rId5"/>
     <sheet name="Arsenal" sheetId="7" r:id="rId6"/>
+    <sheet name="ars_hist" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="563">
   <si>
     <t>27,4</t>
   </si>
@@ -1673,6 +1674,51 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Draws</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,  </t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4064,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6059,4 +6105,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H1" t="str">
+        <f>A1&amp;I1&amp;B1&amp;I1&amp;C1&amp;I1&amp;D1&amp;I1&amp;E1&amp;I1&amp;F1&amp;I1&amp;G1</f>
+        <v>Season,  Total market value,  Matches,  Wins,  Draws,  Losses,  Points</v>
+      </c>
+      <c r="I1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2">
+        <v>281</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>D2*3+E2*1</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3">
+        <v>304.375</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">D3*3+E3*1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4">
+        <v>312.92500000000001</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5">
+        <v>293.75</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6">
+        <v>341.2</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7">
+        <v>404.34999999999997</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8">
+        <v>408.6</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9">
+        <v>517</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>